--- a/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-22/Sample-22.xlsx
+++ b/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-22/Sample-22.xlsx
@@ -8,6 +8,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1'!$A$3:$D$18</definedName>
+  </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -182,20 +185,20 @@
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="iw0f4n5n" xfId="1"/>
-    <cellStyle name="iw0f4n5n_Alternate" xfId="2"/>
-    <cellStyle name="tieknu22" xfId="3"/>
-    <cellStyle name="tieknu22_Alternate" xfId="4"/>
-    <cellStyle name="ukyjlp4c" xfId="5"/>
-    <cellStyle name="ukyjlp4c_Alternate" xfId="6"/>
-    <cellStyle name="zqszal2j" xfId="7"/>
-    <cellStyle name="zqszal2j_Alternate" xfId="8"/>
-    <cellStyle name="jm55qhxf" xfId="9"/>
-    <cellStyle name="jm55qhxf_Alternate" xfId="10"/>
-    <cellStyle name="ldy2ilnu" xfId="11"/>
-    <cellStyle name="ldy2ilnu_Alternate" xfId="12"/>
-    <cellStyle name="zdv2u00h" xfId="13"/>
-    <cellStyle name="zdv2u00h_Alternate" xfId="14"/>
+    <cellStyle name="dhpves1t" xfId="1"/>
+    <cellStyle name="dhpves1t_Alternate" xfId="2"/>
+    <cellStyle name="nsc4nkg1" xfId="3"/>
+    <cellStyle name="nsc4nkg1_Alternate" xfId="4"/>
+    <cellStyle name="pruflcdk" xfId="5"/>
+    <cellStyle name="pruflcdk_Alternate" xfId="6"/>
+    <cellStyle name="455gnmbu" xfId="7"/>
+    <cellStyle name="455gnmbu_Alternate" xfId="8"/>
+    <cellStyle name="1am0xgng" xfId="9"/>
+    <cellStyle name="1am0xgng_Alternate" xfId="10"/>
+    <cellStyle name="4nwkzg50" xfId="11"/>
+    <cellStyle name="4nwkzg50_Alternate" xfId="12"/>
+    <cellStyle name="nbuku0xh" xfId="13"/>
+    <cellStyle name="nbuku0xh_Alternate" xfId="14"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -208,6 +211,12 @@
     <sheetView workbookViewId="0" showGridLines="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="10.48570728302" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="13.1027069091797" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3">
       <c r="B3" s="15" t="s">
@@ -371,6 +380,8 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.787400" right="0.787400" top="0.787400" bottom="0.787400" header="0.315" footer="0.315"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -382,6 +393,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
+  <pageMargins left="0.787400" right="0.787400" top="0.787400" bottom="0.787400" header="0.315" footer="0.315"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-22/Sample-22.xlsx
+++ b/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-22/Sample-22.xlsx
@@ -185,20 +185,20 @@
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="dhpves1t" xfId="1"/>
-    <cellStyle name="dhpves1t_Alternate" xfId="2"/>
-    <cellStyle name="nsc4nkg1" xfId="3"/>
-    <cellStyle name="nsc4nkg1_Alternate" xfId="4"/>
-    <cellStyle name="pruflcdk" xfId="5"/>
-    <cellStyle name="pruflcdk_Alternate" xfId="6"/>
-    <cellStyle name="455gnmbu" xfId="7"/>
-    <cellStyle name="455gnmbu_Alternate" xfId="8"/>
-    <cellStyle name="1am0xgng" xfId="9"/>
-    <cellStyle name="1am0xgng_Alternate" xfId="10"/>
-    <cellStyle name="4nwkzg50" xfId="11"/>
-    <cellStyle name="4nwkzg50_Alternate" xfId="12"/>
-    <cellStyle name="nbuku0xh" xfId="13"/>
-    <cellStyle name="nbuku0xh_Alternate" xfId="14"/>
+    <cellStyle name="w4ueam0f" xfId="1"/>
+    <cellStyle name="w4ueam0f_Alternate" xfId="2"/>
+    <cellStyle name="22rl13uw" xfId="3"/>
+    <cellStyle name="22rl13uw_Alternate" xfId="4"/>
+    <cellStyle name="xcovnhjh" xfId="5"/>
+    <cellStyle name="xcovnhjh_Alternate" xfId="6"/>
+    <cellStyle name="znn2mftx" xfId="7"/>
+    <cellStyle name="znn2mftx_Alternate" xfId="8"/>
+    <cellStyle name="xhwgbjlx" xfId="9"/>
+    <cellStyle name="xhwgbjlx_Alternate" xfId="10"/>
+    <cellStyle name="mh3gbodu" xfId="11"/>
+    <cellStyle name="mh3gbodu_Alternate" xfId="12"/>
+    <cellStyle name="bigia0hf" xfId="13"/>
+    <cellStyle name="bigia0hf_Alternate" xfId="14"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>

--- a/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-22/Sample-22.xlsx
+++ b/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-22/Sample-22.xlsx
@@ -185,20 +185,20 @@
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="w4ueam0f" xfId="1"/>
-    <cellStyle name="w4ueam0f_Alternate" xfId="2"/>
-    <cellStyle name="22rl13uw" xfId="3"/>
-    <cellStyle name="22rl13uw_Alternate" xfId="4"/>
-    <cellStyle name="xcovnhjh" xfId="5"/>
-    <cellStyle name="xcovnhjh_Alternate" xfId="6"/>
-    <cellStyle name="znn2mftx" xfId="7"/>
-    <cellStyle name="znn2mftx_Alternate" xfId="8"/>
-    <cellStyle name="xhwgbjlx" xfId="9"/>
-    <cellStyle name="xhwgbjlx_Alternate" xfId="10"/>
-    <cellStyle name="mh3gbodu" xfId="11"/>
-    <cellStyle name="mh3gbodu_Alternate" xfId="12"/>
-    <cellStyle name="bigia0hf" xfId="13"/>
-    <cellStyle name="bigia0hf_Alternate" xfId="14"/>
+    <cellStyle name="n2hddaz1" xfId="1"/>
+    <cellStyle name="n2hddaz1_Alternate" xfId="2"/>
+    <cellStyle name="kgsaf5nm" xfId="3"/>
+    <cellStyle name="kgsaf5nm_Alternate" xfId="4"/>
+    <cellStyle name="jsuq01uv" xfId="5"/>
+    <cellStyle name="jsuq01uv_Alternate" xfId="6"/>
+    <cellStyle name="f4g0gfb3" xfId="7"/>
+    <cellStyle name="f4g0gfb3_Alternate" xfId="8"/>
+    <cellStyle name="es2kt5w0" xfId="9"/>
+    <cellStyle name="es2kt5w0_Alternate" xfId="10"/>
+    <cellStyle name="eovtxvvh" xfId="11"/>
+    <cellStyle name="eovtxvvh_Alternate" xfId="12"/>
+    <cellStyle name="bka2vqg3" xfId="13"/>
+    <cellStyle name="bka2vqg3_Alternate" xfId="14"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
